--- a/Infografias de POO/ADSOn14nnnEV03nLCHnApropiacionnnninfografinnasnpalabrasnimportantes___596565d29bbffbe___.xlsx
+++ b/Infografias de POO/ADSOn14nnnEV03nLCHnApropiacionnnninfografinnasnpalabrasnimportantes___596565d29bbffbe___.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FORMACION\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FORMACION\Desktop\Infografias de POO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E3FC1E-D9FC-4511-BC82-6F5ADE974AF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{103BEB48-C18D-4AA5-8D03-0BC6772C98B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AF3AE176-B3AF-4D49-B778-54BC367B98FB}"/>
+    <workbookView xWindow="1020" yWindow="3870" windowWidth="24030" windowHeight="10260" xr2:uid="{AF3AE176-B3AF-4D49-B778-54BC367B98FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Formato lista chequeo" sheetId="5" r:id="rId1"/>
@@ -631,8 +631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26EF92FC-4881-4D35-8DDA-AB79049B77B2}">
   <dimension ref="B2:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -704,7 +704,7 @@
     <row r="11" spans="2:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B11" s="12" cm="1">
         <f t="array" ref="B11">SUM(Chequeo_Portafolio[PUNTAJE]/100)</f>
-        <v>0.27272727272727276</v>
+        <v>0.40909090909090917</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
@@ -831,12 +831,12 @@
         <v>16</v>
       </c>
       <c r="D20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="11">
         <f>100/22*Chequeo_Portafolio[[#This Row],[CALIFICACION]]</f>
-        <v>0</v>
+        <v>4.5454545454545459</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
@@ -847,12 +847,12 @@
         <v>17</v>
       </c>
       <c r="D21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="11">
         <f>100/22*Chequeo_Portafolio[[#This Row],[CALIFICACION]]</f>
-        <v>0</v>
+        <v>4.5454545454545459</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
@@ -863,12 +863,12 @@
         <v>18</v>
       </c>
       <c r="D22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="11">
         <f>100/22*Chequeo_Portafolio[[#This Row],[CALIFICACION]]</f>
-        <v>0</v>
+        <v>4.5454545454545459</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1159,6 +1159,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100926CA4D76510EA419F4BE725BF7B63E3" ma:contentTypeVersion="10" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="b45da6e9cc5da0cc946f7434173dd1ea">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8db2478a-a40b-4982-825e-cde4312e2ff3" xmlns:ns3="3b6dcaca-4780-467b-b912-dbe4b814165f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="039aaf65e47860cec1f665ad4bb00aaa" ns2:_="" ns3:_="">
     <xsd:import namespace="8db2478a-a40b-4982-825e-cde4312e2ff3"/>
@@ -1347,15 +1356,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53E77349-AD5A-4890-A8E0-61A1A5FF3E5A}">
   <ds:schemaRefs>
@@ -1368,6 +1368,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58204219-3B34-460D-8848-4415374C54F6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37F8C48E-52DB-4126-8C3A-662FD9379B6E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1384,12 +1392,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58204219-3B34-460D-8848-4415374C54F6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>